--- a/Arm-Linux嵌入式编程实战/Arm-Linux嵌入式编程实战.xlsx
+++ b/Arm-Linux嵌入式编程实战/Arm-Linux嵌入式编程实战.xlsx
@@ -1336,11 +1336,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,19 +1679,19 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
